--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1606.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1606.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176075868416487</v>
+        <v>0.5676286220550537</v>
       </c>
       <c r="B1">
-        <v>2.356004671723874</v>
+        <v>1.167033910751343</v>
       </c>
       <c r="C1">
-        <v>5.10424341557606</v>
+        <v>5.639540672302246</v>
       </c>
       <c r="D1">
-        <v>2.331630062683952</v>
+        <v>3.290453195571899</v>
       </c>
       <c r="E1">
-        <v>1.043756992514524</v>
+        <v>1.249758005142212</v>
       </c>
     </row>
   </sheetData>
